--- a/Project692_Z. -X. Luo(2011).xlsx
+++ b/Project692_Z. -X. Luo(2011).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D352FC-4FF6-7F47-8787-69ABD828404C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF812B1D-C2F2-4B66-8162-A14E3F12E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3EFBE9F8-ADC6-734A-8A4B-406C1EAB91E6}"/>
+    <workbookView xWindow="16455" yWindow="2730" windowWidth="15945" windowHeight="18375" xr2:uid="{3EFBE9F8-ADC6-734A-8A4B-406C1EAB91E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Project692" sheetId="1" r:id="rId1"/>
@@ -1405,55 +1405,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>801077</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9666535-E58D-C5F6-B5F4-2E51B8A2A493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7808546" y="298938"/>
-          <a:ext cx="10635762" cy="6427033"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1775,17 +1726,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E8B7BE-536F-B44B-9EF1-E89306EFBC52}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>410</v>
       </c>
@@ -1807,7 +1756,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1767,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1778,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1786,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1797,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1808,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1819,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +1830,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1841,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1903,7 +1852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1863,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1874,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1936,7 +1885,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1896,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +1907,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1918,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1929,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1991,7 +1940,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +1951,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2013,7 +1962,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2024,7 +1973,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +1984,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +1992,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2003,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2011,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2073,7 +2022,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2084,7 +2033,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2095,7 +2044,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2117,7 +2066,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2074,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2136,7 +2085,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2147,7 +2096,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2169,7 +2118,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2177,7 +2126,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2185,7 +2134,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2145,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +2156,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2215,7 +2164,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2172,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2231,7 +2180,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2242,7 +2191,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2199,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2210,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2272,7 +2221,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2283,7 +2232,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2294,7 +2243,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2254,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2316,7 +2265,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2327,7 +2276,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2338,7 +2287,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2346,7 +2295,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2306,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2314,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2373,7 +2322,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2381,7 +2330,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2392,7 +2341,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2403,7 +2352,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2414,7 +2363,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2425,7 +2374,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2433,7 +2382,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2444,7 +2393,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2455,7 +2404,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2463,7 +2412,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2471,7 +2420,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2482,7 +2431,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2493,7 +2442,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2504,7 +2453,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2512,7 +2461,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2520,7 +2469,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2480,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2539,7 +2488,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2547,7 +2496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2555,7 +2504,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2563,7 +2512,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2571,7 +2520,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2582,7 +2531,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2593,7 +2542,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2604,7 +2553,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2615,7 +2564,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +2572,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2631,7 +2580,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2642,7 +2591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2650,7 +2599,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2658,7 +2607,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2666,7 +2615,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2674,7 +2623,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2682,7 +2631,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2642,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2704,7 +2653,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2712,7 +2661,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2723,7 +2672,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2734,7 +2683,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2745,7 +2694,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2756,7 +2705,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2764,7 +2713,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2772,7 +2721,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2780,7 +2729,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2791,7 +2740,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2751,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2813,7 +2762,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2824,7 +2773,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2835,7 +2784,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2846,7 +2795,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2857,7 +2806,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2868,7 +2817,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2879,7 +2828,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2890,7 +2839,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2901,7 +2850,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2912,7 +2861,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2923,7 +2872,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2934,7 +2883,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2942,7 +2891,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2953,7 +2902,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2961,7 +2910,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2972,7 +2921,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2983,7 +2932,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2994,7 +2943,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3002,7 +2951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3010,7 +2959,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3018,7 +2967,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3029,7 +2978,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3040,7 +2989,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3051,7 +3000,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3062,7 +3011,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3073,7 +3022,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3084,7 +3033,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3095,7 +3044,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3106,7 +3055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3117,7 +3066,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3128,7 +3077,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3139,7 +3088,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3150,7 +3099,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3161,7 +3110,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3172,7 +3121,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3180,7 +3129,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3188,7 +3137,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3199,7 +3148,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3210,7 +3159,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3221,7 +3170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3232,7 +3181,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3243,7 +3192,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3254,7 +3203,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3265,7 +3214,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3276,7 +3225,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3287,7 +3236,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3298,7 +3247,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3309,7 +3258,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3320,7 +3269,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3331,7 +3280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3342,7 +3291,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3353,7 +3302,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3364,7 +3313,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3375,7 +3324,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3386,7 +3335,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3397,7 +3346,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3408,7 +3357,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3419,7 +3368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3430,7 +3379,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3438,7 +3387,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3449,7 +3398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3460,7 +3409,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3468,7 +3417,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3479,7 +3428,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3490,7 +3439,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3501,7 +3450,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3512,7 +3461,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3523,7 +3472,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3534,7 +3483,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3545,7 +3494,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3556,7 +3505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3567,7 +3516,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3578,7 +3527,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3589,7 +3538,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3600,7 +3549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3611,7 +3560,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3622,7 +3571,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3633,7 +3582,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3644,7 +3593,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3652,7 +3601,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3663,7 +3612,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3674,7 +3623,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3685,7 +3634,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3696,7 +3645,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3707,7 +3656,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3718,7 +3667,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3726,7 +3675,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3737,7 +3686,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3748,7 +3697,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3759,7 +3708,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3770,7 +3719,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3778,7 +3727,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3789,7 +3738,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3800,7 +3749,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3811,7 +3760,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3822,7 +3771,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3833,7 +3782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3844,7 +3793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3855,7 +3804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3866,7 +3815,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3877,7 +3826,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3888,7 +3837,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3899,7 +3848,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3910,7 +3859,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3921,7 +3870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3932,7 +3881,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3943,7 +3892,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3954,7 +3903,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3965,7 +3914,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3976,7 +3925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3987,7 +3936,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3998,7 +3947,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4009,7 +3958,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4020,7 +3969,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4028,7 +3977,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4039,7 +3988,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4050,7 +3999,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4061,7 +4010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4072,7 +4021,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4080,7 +4029,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4091,7 +4040,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4102,7 +4051,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4113,7 +4062,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4121,7 +4070,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4132,7 +4081,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4143,7 +4092,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4154,7 +4103,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4165,7 +4114,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4176,7 +4125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4187,7 +4136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4198,7 +4147,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4206,7 +4155,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4217,7 +4166,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4228,7 +4177,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4239,7 +4188,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4250,7 +4199,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4261,7 +4210,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4269,7 +4218,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4280,7 +4229,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4288,7 +4237,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4299,7 +4248,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4310,7 +4259,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4321,7 +4270,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4332,7 +4281,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4343,7 +4292,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4354,7 +4303,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4365,7 +4314,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4376,7 +4325,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4387,7 +4336,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4398,7 +4347,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4409,7 +4358,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4420,7 +4369,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4428,7 +4377,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4439,7 +4388,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4450,7 +4399,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4461,7 +4410,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4472,7 +4421,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4483,7 +4432,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4494,7 +4443,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4502,7 +4451,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4513,7 +4462,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4521,7 +4470,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4532,7 +4481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4543,7 +4492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4554,7 +4503,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4565,7 +4514,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4573,7 +4522,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4581,7 +4530,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4589,7 +4538,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4600,7 +4549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4611,7 +4560,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4622,7 +4571,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4630,7 +4579,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4641,7 +4590,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4652,7 +4601,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4663,7 +4612,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4674,7 +4623,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4685,7 +4634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4696,7 +4645,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4704,7 +4653,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4715,7 +4664,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4726,7 +4675,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4737,7 +4686,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4748,7 +4697,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4759,7 +4708,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4770,7 +4719,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4781,7 +4730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4792,7 +4741,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4803,7 +4752,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4811,7 +4760,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4822,7 +4771,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4833,7 +4782,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4844,7 +4793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4855,7 +4804,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4866,7 +4815,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4874,7 +4823,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4885,7 +4834,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -4893,7 +4842,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -4904,7 +4853,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -4915,7 +4864,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -4926,7 +4875,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -4937,7 +4886,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -4948,7 +4897,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4956,7 +4905,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -4967,7 +4916,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -4978,7 +4927,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -4986,7 +4935,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -4997,7 +4946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5008,7 +4957,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5019,7 +4968,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5030,7 +4979,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5041,7 +4990,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5049,7 +4998,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5060,7 +5009,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5068,7 +5017,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5079,7 +5028,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5090,7 +5039,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5101,7 +5050,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5112,7 +5061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5123,7 +5072,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5134,7 +5083,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5145,7 +5094,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5156,7 +5105,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5167,7 +5116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5178,7 +5127,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5186,7 +5135,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5194,7 +5143,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5205,7 +5154,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5213,7 +5162,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5224,7 +5173,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5235,7 +5184,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5243,7 +5192,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5254,7 +5203,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5265,7 +5214,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5273,7 +5222,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5284,7 +5233,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5295,7 +5244,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5306,7 +5255,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5317,7 +5266,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5328,7 +5277,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5339,7 +5288,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5350,7 +5299,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5361,7 +5310,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5372,7 +5321,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5383,7 +5332,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5394,7 +5343,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5405,7 +5354,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5416,7 +5365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5427,7 +5376,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5438,7 +5387,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5449,7 +5398,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5460,7 +5409,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5468,7 +5417,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5479,7 +5428,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5490,7 +5439,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5501,7 +5450,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5512,7 +5461,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5523,7 +5472,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5534,7 +5483,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5545,7 +5494,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5556,7 +5505,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5567,7 +5516,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5578,7 +5527,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5589,7 +5538,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5600,7 +5549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5611,7 +5560,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5622,7 +5571,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5633,7 +5582,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5644,7 +5593,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -5655,7 +5604,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -5666,7 +5615,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -5674,7 +5623,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -5685,7 +5634,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -5696,7 +5645,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -5707,7 +5656,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -5718,7 +5667,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -5729,7 +5678,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -5740,7 +5689,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -5751,7 +5700,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -5762,7 +5711,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -5773,7 +5722,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -5784,7 +5733,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -5792,7 +5741,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -5800,7 +5749,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -5811,7 +5760,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -5822,7 +5771,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -5833,7 +5782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -5844,7 +5793,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -5855,7 +5804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -5866,7 +5815,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -5874,7 +5823,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -5885,7 +5834,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -5896,7 +5845,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -5904,7 +5853,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -5915,7 +5864,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -5926,7 +5875,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -5937,7 +5886,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -5945,7 +5894,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -5956,7 +5905,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -5967,7 +5916,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -5975,7 +5924,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -5983,7 +5932,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -5994,7 +5943,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6005,7 +5954,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6016,7 +5965,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6027,7 +5976,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6042,6 +5991,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>